--- a/USER_CASES_PARKING.xlsx
+++ b/USER_CASES_PARKING.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20395"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20375"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kraskopoulos\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schatzis\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13A675B8-3A68-46C7-B614-B6515D5DA22F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDFEE802-1E51-4A12-9952-D96D5373FC36}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12960" windowHeight="4875" xr2:uid="{530EAAF5-4A97-45AD-B0BE-5B7139C5FC20}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="37">
   <si>
     <t xml:space="preserve">ASSIGN PRICELIST TO ZONE </t>
   </si>
@@ -40,9 +40,6 @@
   </si>
   <si>
     <t>DEFINE PRICELIST TIME-PERIOD</t>
-  </si>
-  <si>
-    <t>PLATE STAMP</t>
   </si>
   <si>
     <t>CALCULATE COST FROM PRICESCALE</t>
@@ -182,9 +179,6 @@
     <t xml:space="preserve">ASSIGN AND CREATE  AT LEAST 1 PRICELIST </t>
   </si>
   <si>
-    <t xml:space="preserve">MAKE : PARKING, ZONES, SPOTS </t>
-  </si>
-  <si>
     <t>SEE CURRENT COST</t>
   </si>
   <si>
@@ -207,13 +201,16 @@
   </si>
   <si>
     <t>DIFFICULTY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAKE PARKING WITH ZONES AND SPOTS </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -248,6 +245,14 @@
     </font>
     <font>
       <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="26"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -299,7 +304,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -307,62 +312,454 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -678,264 +1075,374 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BB08B6-FF9F-491F-A65D-26ADD5AA5A80}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="32.25" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="71.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="47.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="51.42578125" customWidth="1"/>
-    <col min="4" max="4" width="42" customWidth="1"/>
-    <col min="5" max="5" width="33.7109375" customWidth="1"/>
-    <col min="6" max="6" width="37.7109375" customWidth="1"/>
-    <col min="7" max="7" width="35.42578125" style="16" customWidth="1"/>
-    <col min="8" max="8" width="33" customWidth="1"/>
-    <col min="9" max="9" width="35.7109375" style="17" customWidth="1"/>
+    <col min="2" max="2" width="77.42578125" customWidth="1"/>
+    <col min="3" max="3" width="42" customWidth="1"/>
+    <col min="4" max="4" width="35.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="33" customWidth="1"/>
+    <col min="6" max="6" width="35.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="111" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:6" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="E1" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="11" t="s">
+      <c r="D2" s="16">
+        <v>1</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="40"/>
+      <c r="B3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="17">
+        <v>1</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="40"/>
+      <c r="B4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="17">
+        <v>1</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="16">
+        <v>1</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="41"/>
+      <c r="B6" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="18">
+        <v>2</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="16">
+        <v>2</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="68.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="41"/>
+      <c r="B8" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="18">
+        <v>2</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="16">
+        <v>3</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="41"/>
+      <c r="B10" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="18">
+        <v>3</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="102" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="19">
+        <v>2</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="16">
+        <v>2</v>
+      </c>
+      <c r="E12" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="40"/>
+      <c r="B13" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="17">
+        <v>2</v>
+      </c>
+      <c r="E13" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="41"/>
+      <c r="B14" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="18">
+        <v>2</v>
+      </c>
+      <c r="E14" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="D15" s="19">
+        <v>1</v>
+      </c>
+      <c r="E15" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="16">
+        <v>1</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="41"/>
+      <c r="B17" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="18">
+        <v>1</v>
+      </c>
+      <c r="E17" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="19">
+        <v>3</v>
+      </c>
+      <c r="E18" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="F18" s="23">
         <v>5</v>
       </c>
-      <c r="G2" s="16">
-        <v>1</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I2" s="17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="124.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="16">
-        <v>2</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" s="17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="16">
-        <v>2</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I4" s="17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="16">
-        <v>3</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" s="17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="102" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="16">
-        <v>2</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="I6" s="17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="134.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="16">
-        <v>2</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="I7" s="17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="16">
-        <v>1</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I8" s="17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="137.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="16">
-        <v>1</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I9" s="17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="111.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="16">
-        <v>3</v>
-      </c>
-      <c r="H10" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="I10" s="17">
-        <v>5</v>
-      </c>
     </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/USER_CASES_PARKING.xlsx
+++ b/USER_CASES_PARKING.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20375"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20395"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schatzis\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kraskopoulos\IdeaProjects\parking-rik\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDFEE802-1E51-4A12-9952-D96D5373FC36}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24BF616E-791A-4D04-90F3-0AF37457001F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12960" windowHeight="4875" xr2:uid="{530EAAF5-4A97-45AD-B0BE-5B7139C5FC20}"/>
   </bookViews>
@@ -636,7 +636,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -746,21 +746,22 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1075,10 +1076,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BB08B6-FF9F-491F-A65D-26ADD5AA5A80}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="32.25" x14ac:dyDescent="0.5"/>
@@ -1091,11 +1092,11 @@
     <col min="6" max="6" width="35.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:7" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="38"/>
+      <c r="B1" s="41"/>
       <c r="C1" s="11" t="s">
         <v>16</v>
       </c>
@@ -1109,8 +1110,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+    <row r="2" spans="1:7" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="37" t="s">
         <v>36</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -1129,8 +1130,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="40"/>
+    <row r="3" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="38"/>
       <c r="B3" s="8" t="s">
         <v>2</v>
       </c>
@@ -1147,8 +1148,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="40"/>
+    <row r="4" spans="1:7" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="38"/>
       <c r="B4" s="8" t="s">
         <v>3</v>
       </c>
@@ -1165,8 +1166,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
+    <row r="5" spans="1:7" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="37" t="s">
         <v>27</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -1176,7 +1177,7 @@
         <v>17</v>
       </c>
       <c r="D5" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5" s="25" t="s">
         <v>32</v>
@@ -1185,8 +1186,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="41"/>
+    <row r="6" spans="1:7" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="39"/>
       <c r="B6" s="9" t="s">
         <v>0</v>
       </c>
@@ -1203,8 +1204,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="39" t="s">
+    <row r="7" spans="1:7" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="37" t="s">
         <v>26</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -1223,8 +1224,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="68.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="41"/>
+    <row r="8" spans="1:7" ht="68.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="39"/>
       <c r="B8" s="9" t="s">
         <v>8</v>
       </c>
@@ -1241,8 +1242,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="39" t="s">
+    <row r="9" spans="1:7" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="37" t="s">
         <v>25</v>
       </c>
       <c r="B9" s="7" t="s">
@@ -1261,8 +1262,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="41"/>
+    <row r="10" spans="1:7" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="39"/>
       <c r="B10" s="9" t="s">
         <v>6</v>
       </c>
@@ -1279,7 +1280,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="102" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="102" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>24</v>
       </c>
@@ -1299,8 +1300,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="39" t="s">
+    <row r="12" spans="1:7" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="37" t="s">
         <v>23</v>
       </c>
       <c r="B12" s="7" t="s">
@@ -1319,8 +1320,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="40"/>
+    <row r="13" spans="1:7" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="38"/>
       <c r="B13" s="8" t="s">
         <v>11</v>
       </c>
@@ -1337,8 +1338,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="41"/>
+    <row r="14" spans="1:7" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="39"/>
       <c r="B14" s="9" t="s">
         <v>10</v>
       </c>
@@ -1355,7 +1356,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15" s="6" t="s">
         <v>18</v>
       </c>
@@ -1374,9 +1375,10 @@
       <c r="F15" s="23">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="39" t="s">
+      <c r="G15" s="42"/>
+    </row>
+    <row r="16" spans="1:7" ht="62.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="37" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="7" t="s">
@@ -1394,9 +1396,10 @@
       <c r="F16" s="20">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="41"/>
+      <c r="G16" s="42"/>
+    </row>
+    <row r="17" spans="1:7" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A17" s="39"/>
       <c r="B17" s="9" t="s">
         <v>22</v>
       </c>
@@ -1412,8 +1415,9 @@
       <c r="F17" s="22">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G17" s="42"/>
+    </row>
+    <row r="18" spans="1:7" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>28</v>
       </c>

--- a/USER_CASES_PARKING.xlsx
+++ b/USER_CASES_PARKING.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kraskopoulos\IdeaProjects\parking-rik\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24BF616E-791A-4D04-90F3-0AF37457001F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E435E6A7-CBAB-4F3D-B706-BA7232DAB97F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12960" windowHeight="4875" xr2:uid="{530EAAF5-4A97-45AD-B0BE-5B7139C5FC20}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="38">
   <si>
     <t xml:space="preserve">ASSIGN PRICELIST TO ZONE </t>
   </si>
@@ -205,12 +205,15 @@
   <si>
     <t xml:space="preserve">MAKE PARKING WITH ZONES AND SPOTS </t>
   </si>
+  <si>
+    <t>οκ</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -253,6 +256,14 @@
     </font>
     <font>
       <sz val="26"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="30"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -761,7 +772,9 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1079,10 +1092,10 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="32.25" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="39" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="71.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="77.42578125" customWidth="1"/>
@@ -1090,6 +1103,7 @@
     <col min="4" max="4" width="35.42578125" style="2" customWidth="1"/>
     <col min="5" max="5" width="33" customWidth="1"/>
     <col min="6" max="6" width="35.7109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" style="42" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1129,6 +1143,9 @@
       <c r="F2" s="20">
         <v>2</v>
       </c>
+      <c r="G2" s="42" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="3" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="38"/>
@@ -1146,6 +1163,9 @@
       </c>
       <c r="F3" s="21">
         <v>2</v>
+      </c>
+      <c r="G3" s="42" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1165,6 +1185,9 @@
       <c r="F4" s="21">
         <v>2</v>
       </c>
+      <c r="G4" s="42" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="37" t="s">
@@ -1356,7 +1379,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:7" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>18</v>
       </c>
@@ -1375,9 +1398,11 @@
       <c r="F15" s="23">
         <v>2</v>
       </c>
-      <c r="G15" s="42"/>
-    </row>
-    <row r="16" spans="1:7" ht="62.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G15" s="42" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="37" t="s">
         <v>20</v>
       </c>
@@ -1396,9 +1421,11 @@
       <c r="F16" s="20">
         <v>2</v>
       </c>
-      <c r="G16" s="42"/>
-    </row>
-    <row r="17" spans="1:7" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="G16" s="42" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="39"/>
       <c r="B17" s="9" t="s">
         <v>22</v>
@@ -1415,7 +1442,9 @@
       <c r="F17" s="22">
         <v>2</v>
       </c>
-      <c r="G17" s="42"/>
+      <c r="G17" s="42" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="18" spans="1:7" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">

--- a/USER_CASES_PARKING.xlsx
+++ b/USER_CASES_PARKING.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kraskopoulos\IdeaProjects\parking-rik\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E435E6A7-CBAB-4F3D-B706-BA7232DAB97F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C9DACF-BD3B-4C1D-86BD-5F3F91100D5C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12960" windowHeight="4875" xr2:uid="{530EAAF5-4A97-45AD-B0BE-5B7139C5FC20}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="40">
   <si>
     <t xml:space="preserve">ASSIGN PRICELIST TO ZONE </t>
   </si>
@@ -206,7 +206,13 @@
     <t xml:space="preserve">MAKE PARKING WITH ZONES AND SPOTS </t>
   </si>
   <si>
-    <t>οκ</t>
+    <t>MAKE AN OCCUPATION</t>
+  </si>
+  <si>
+    <t>OCCUPY A SPOT AND CHECK IF IT IS OCCUPIED</t>
+  </si>
+  <si>
+    <t>OK</t>
   </si>
 </sst>
 </file>
@@ -315,7 +321,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -643,11 +649,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -757,6 +785,21 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -771,9 +814,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1089,10 +1129,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BB08B6-FF9F-491F-A65D-26ADD5AA5A80}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39" x14ac:dyDescent="0.5"/>
@@ -1103,14 +1143,14 @@
     <col min="4" max="4" width="35.42578125" style="2" customWidth="1"/>
     <col min="5" max="5" width="33" customWidth="1"/>
     <col min="6" max="6" width="35.7109375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="22.42578125" style="42" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" style="37" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="41"/>
+      <c r="B1" s="46"/>
       <c r="C1" s="11" t="s">
         <v>16</v>
       </c>
@@ -1125,7 +1165,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="42" t="s">
         <v>36</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -1143,12 +1183,12 @@
       <c r="F2" s="20">
         <v>2</v>
       </c>
-      <c r="G2" s="42" t="s">
-        <v>37</v>
+      <c r="G2" s="37" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="38"/>
+      <c r="A3" s="43"/>
       <c r="B3" s="8" t="s">
         <v>2</v>
       </c>
@@ -1164,12 +1204,12 @@
       <c r="F3" s="21">
         <v>2</v>
       </c>
-      <c r="G3" s="42" t="s">
-        <v>37</v>
+      <c r="G3" s="37" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="38"/>
+      <c r="A4" s="43"/>
       <c r="B4" s="8" t="s">
         <v>3</v>
       </c>
@@ -1185,12 +1225,12 @@
       <c r="F4" s="21">
         <v>2</v>
       </c>
-      <c r="G4" s="42" t="s">
-        <v>37</v>
+      <c r="G4" s="37" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="42" t="s">
         <v>27</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -1200,7 +1240,7 @@
         <v>17</v>
       </c>
       <c r="D5" s="16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E5" s="25" t="s">
         <v>32</v>
@@ -1210,7 +1250,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="39"/>
+      <c r="A6" s="44"/>
       <c r="B6" s="9" t="s">
         <v>0</v>
       </c>
@@ -1218,7 +1258,7 @@
         <v>17</v>
       </c>
       <c r="D6" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E6" s="27" t="s">
         <v>32</v>
@@ -1228,7 +1268,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="42" t="s">
         <v>26</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -1238,7 +1278,7 @@
         <v>17</v>
       </c>
       <c r="D7" s="16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E7" s="28" t="s">
         <v>32</v>
@@ -1248,7 +1288,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="68.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="39"/>
+      <c r="A8" s="44"/>
       <c r="B8" s="9" t="s">
         <v>8</v>
       </c>
@@ -1256,7 +1296,7 @@
         <v>17</v>
       </c>
       <c r="D8" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E8" s="27" t="s">
         <v>32</v>
@@ -1266,7 +1306,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="42" t="s">
         <v>25</v>
       </c>
       <c r="B9" s="7" t="s">
@@ -1276,7 +1316,7 @@
         <v>17</v>
       </c>
       <c r="D9" s="16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E9" s="29" t="s">
         <v>33</v>
@@ -1286,7 +1326,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="39"/>
+      <c r="A10" s="44"/>
       <c r="B10" s="9" t="s">
         <v>6</v>
       </c>
@@ -1294,7 +1334,7 @@
         <v>17</v>
       </c>
       <c r="D10" s="18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E10" s="30" t="s">
         <v>33</v>
@@ -1322,9 +1362,12 @@
       <c r="F11" s="23">
         <v>2</v>
       </c>
+      <c r="G11" s="37" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="12" spans="1:7" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="42" t="s">
         <v>23</v>
       </c>
       <c r="B12" s="7" t="s">
@@ -1342,9 +1385,12 @@
       <c r="F12" s="20">
         <v>3</v>
       </c>
+      <c r="G12" s="37" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="38"/>
+      <c r="A13" s="43"/>
       <c r="B13" s="8" t="s">
         <v>11</v>
       </c>
@@ -1360,9 +1406,12 @@
       <c r="F13" s="21">
         <v>3</v>
       </c>
+      <c r="G13" s="37" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="14" spans="1:7" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="39"/>
+      <c r="A14" s="44"/>
       <c r="B14" s="9" t="s">
         <v>10</v>
       </c>
@@ -1377,6 +1426,9 @@
       </c>
       <c r="F14" s="22">
         <v>3</v>
+      </c>
+      <c r="G14" s="37" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1398,12 +1450,12 @@
       <c r="F15" s="23">
         <v>2</v>
       </c>
-      <c r="G15" s="42" t="s">
-        <v>37</v>
+      <c r="G15" s="37" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="37" t="s">
+      <c r="A16" s="42" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="7" t="s">
@@ -1421,12 +1473,12 @@
       <c r="F16" s="20">
         <v>2</v>
       </c>
-      <c r="G16" s="42" t="s">
-        <v>37</v>
+      <c r="G16" s="37" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="39"/>
+      <c r="A17" s="44"/>
       <c r="B17" s="9" t="s">
         <v>22</v>
       </c>
@@ -1442,8 +1494,8 @@
       <c r="F17" s="22">
         <v>2</v>
       </c>
-      <c r="G17" s="42" t="s">
-        <v>37</v>
+      <c r="G17" s="37" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1457,13 +1509,36 @@
         <v>29</v>
       </c>
       <c r="D18" s="19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E18" s="36" t="s">
         <v>33</v>
       </c>
       <c r="F18" s="23">
         <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="165.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="2">
+        <v>2</v>
+      </c>
+      <c r="E19" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="3">
+        <v>2</v>
+      </c>
+      <c r="G19" s="37" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/USER_CASES_PARKING.xlsx
+++ b/USER_CASES_PARKING.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kraskopoulos\IdeaProjects\parking-rik\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C9DACF-BD3B-4C1D-86BD-5F3F91100D5C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14F45067-BEF6-4707-A2D4-D10ABDFF4974}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12960" windowHeight="4875" xr2:uid="{530EAAF5-4A97-45AD-B0BE-5B7139C5FC20}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="41">
   <si>
     <t xml:space="preserve">ASSIGN PRICELIST TO ZONE </t>
   </si>
@@ -213,6 +213,9 @@
   </si>
   <si>
     <t>OK</t>
+  </si>
+  <si>
+    <t>οκ</t>
   </si>
 </sst>
 </file>
@@ -1248,6 +1251,9 @@
       <c r="F5" s="20">
         <v>2</v>
       </c>
+      <c r="G5" s="37" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="44"/>
@@ -1266,6 +1272,9 @@
       <c r="F6" s="22">
         <v>3</v>
       </c>
+      <c r="G6" s="37" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="42" t="s">
@@ -1285,6 +1294,9 @@
       </c>
       <c r="F7" s="20">
         <v>3</v>
+      </c>
+      <c r="G7" s="37" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="68.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1303,6 +1315,9 @@
       </c>
       <c r="F8" s="22">
         <v>3</v>
+      </c>
+      <c r="G8" s="37" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">

--- a/USER_CASES_PARKING.xlsx
+++ b/USER_CASES_PARKING.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kraskopoulos\IdeaProjects\parking-rik\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14F45067-BEF6-4707-A2D4-D10ABDFF4974}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC0EFEEB-CC71-451D-BE28-3B9E7256044A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12960" windowHeight="4875" xr2:uid="{530EAAF5-4A97-45AD-B0BE-5B7139C5FC20}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="40">
   <si>
     <t xml:space="preserve">ASSIGN PRICELIST TO ZONE </t>
   </si>
@@ -213,9 +213,6 @@
   </si>
   <si>
     <t>OK</t>
-  </si>
-  <si>
-    <t>οκ</t>
   </si>
 </sst>
 </file>
@@ -1134,8 +1131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BB08B6-FF9F-491F-A65D-26ADD5AA5A80}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39" x14ac:dyDescent="0.5"/>
@@ -1252,7 +1249,7 @@
         <v>2</v>
       </c>
       <c r="G5" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1273,7 +1270,7 @@
         <v>3</v>
       </c>
       <c r="G6" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1296,7 +1293,7 @@
         <v>3</v>
       </c>
       <c r="G7" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="68.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1317,7 +1314,7 @@
         <v>3</v>
       </c>
       <c r="G8" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1338,6 +1335,9 @@
       </c>
       <c r="F9" s="20">
         <v>5</v>
+      </c>
+      <c r="G9" s="37" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1357,6 +1357,9 @@
       <c r="F10" s="22">
         <v>5</v>
       </c>
+      <c r="G10" s="37" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="102" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
@@ -1531,6 +1534,9 @@
       </c>
       <c r="F18" s="23">
         <v>5</v>
+      </c>
+      <c r="G18" s="37" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="165.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/USER_CASES_PARKING.xlsx
+++ b/USER_CASES_PARKING.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kraskopoulos\IdeaProjects\parking-rik\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC0EFEEB-CC71-451D-BE28-3B9E7256044A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{676765ED-9EA7-4DD3-81A8-BB3666A0F964}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12960" windowHeight="4875" xr2:uid="{530EAAF5-4A97-45AD-B0BE-5B7139C5FC20}"/>
   </bookViews>
@@ -1131,8 +1131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BB08B6-FF9F-491F-A65D-26ADD5AA5A80}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39" x14ac:dyDescent="0.5"/>

--- a/USER_CASES_PARKING.xlsx
+++ b/USER_CASES_PARKING.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kraskopoulos\IdeaProjects\parking-rik\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{676765ED-9EA7-4DD3-81A8-BB3666A0F964}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55682E23-F519-4659-9501-2800FA16709C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12960" windowHeight="4875" xr2:uid="{530EAAF5-4A97-45AD-B0BE-5B7139C5FC20}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="42">
   <si>
     <t xml:space="preserve">ASSIGN PRICELIST TO ZONE </t>
   </si>
@@ -213,6 +213,12 @@
   </si>
   <si>
     <t>OK</t>
+  </si>
+  <si>
+    <t>MAKE TESTS FOR PROJECT</t>
+  </si>
+  <si>
+    <t>JUNIT, H2, MOCK TESTING</t>
   </si>
 </sst>
 </file>
@@ -1129,10 +1135,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BB08B6-FF9F-491F-A65D-26ADD5AA5A80}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39" x14ac:dyDescent="0.5"/>
@@ -1539,7 +1545,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="165.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="165.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="38" t="s">
         <v>37</v>
       </c>
@@ -1559,6 +1565,29 @@
         <v>2</v>
       </c>
       <c r="G19" s="37" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="142.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="2">
+        <v>4</v>
+      </c>
+      <c r="E20" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" s="3">
+        <v>3</v>
+      </c>
+      <c r="G20" s="37" t="s">
         <v>39</v>
       </c>
     </row>
